--- a/vdf.xlsx
+++ b/vdf.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joan Tew\Desktop\Github\ssicsync\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCBBB1D-B1C2-47A3-9D78-5F0885A51C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A77FDE0-153A-4F3B-A4F2-B65DD71312BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CD$88</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -5603,10 +5606,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5910,15 +5919,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:CD88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
-      <selection activeCell="BZ18" sqref="BZ18"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="37.46484375" customWidth="1"/>
+    <col min="5" max="5" width="29.46484375" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="35" max="35" width="9.06640625" style="3"/>
+    <col min="36" max="36" width="9.06640625" style="3" customWidth="1"/>
+    <col min="37" max="42" width="9.06640625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:82" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6021,28 +6039,28 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
@@ -6662,7 +6680,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -6910,7 +6928,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:82" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -7004,19 +7022,19 @@
       <c r="AH5" t="s">
         <v>182</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AI5" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AK5" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AL5" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AP5" s="3" t="s">
         <v>183</v>
       </c>
       <c r="AQ5" t="s">
@@ -7095,7 +7113,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -7343,7 +7361,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:82" ht="47.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -7398,19 +7416,19 @@
       <c r="AH7" t="s">
         <v>182</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AI7" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AK7" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AL7" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AP7" s="3" t="s">
         <v>183</v>
       </c>
       <c r="AQ7" t="s">
@@ -7489,7 +7507,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:82" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>210</v>
       </c>
@@ -7574,28 +7592,28 @@
       <c r="AH8" t="s">
         <v>222</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AI8" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AJ8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AK8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AL8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AM8" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AN8" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AO8" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AP8" s="3" t="s">
         <v>183</v>
       </c>
       <c r="AQ8" t="s">
@@ -7719,7 +7737,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -7967,7 +7985,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:82" ht="60.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -8061,19 +8079,19 @@
       <c r="AH10" t="s">
         <v>182</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AI10" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AJ10" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AK10" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AL10" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AP10" s="3" t="s">
         <v>183</v>
       </c>
       <c r="AQ10" t="s">
@@ -8152,7 +8170,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:82" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>253</v>
       </c>
@@ -8246,19 +8264,19 @@
       <c r="AH11" t="s">
         <v>182</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AI11" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AJ11" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AK11" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AL11" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AP11" s="3" t="s">
         <v>267</v>
       </c>
       <c r="AQ11" t="s">
@@ -8337,7 +8355,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -8585,7 +8603,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>298</v>
       </c>
@@ -8833,7 +8851,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>318</v>
       </c>
@@ -8921,6 +8939,9 @@
       <c r="AL14" t="s">
         <v>267</v>
       </c>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
       <c r="AP14" t="s">
         <v>267</v>
       </c>
@@ -8997,7 +9018,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>326</v>
       </c>
@@ -9245,7 +9266,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>345</v>
       </c>
@@ -9475,7 +9496,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>349</v>
       </c>
@@ -9723,7 +9744,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>390</v>
       </c>
@@ -9971,7 +9992,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="19" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -10449,7 +10470,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>261</v>
       </c>
@@ -10697,7 +10718,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>190</v>
       </c>
@@ -10945,7 +10966,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="23" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>516</v>
       </c>
@@ -11193,7 +11214,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>541</v>
       </c>
@@ -11423,7 +11444,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="25" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>147</v>
       </c>
@@ -11671,7 +11692,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="26" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>215</v>
       </c>
@@ -11919,7 +11940,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -12164,7 +12185,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="28" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>619</v>
       </c>
@@ -12270,6 +12291,9 @@
       <c r="AL28" t="s">
         <v>267</v>
       </c>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
       <c r="AP28" t="s">
         <v>267</v>
       </c>
@@ -12346,7 +12370,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>624</v>
       </c>
@@ -12591,7 +12615,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="30" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>229</v>
       </c>
@@ -12839,7 +12863,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="31" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -13087,7 +13111,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>458</v>
       </c>
@@ -13565,7 +13589,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>218</v>
       </c>
@@ -13813,7 +13837,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="35" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>732</v>
       </c>
@@ -14043,7 +14067,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>275</v>
       </c>
@@ -14273,7 +14297,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="37" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>762</v>
       </c>
@@ -14521,7 +14545,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="38" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>782</v>
       </c>
@@ -14996,7 +15020,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>817</v>
       </c>
@@ -15244,7 +15268,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="41" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>830</v>
       </c>
@@ -15598,6 +15622,9 @@
       <c r="AL42" t="s">
         <v>183</v>
       </c>
+      <c r="AM42"/>
+      <c r="AN42"/>
+      <c r="AO42"/>
       <c r="AP42" t="s">
         <v>183</v>
       </c>
@@ -15677,7 +15704,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="43" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>151</v>
       </c>
@@ -15783,6 +15810,9 @@
       <c r="AL43" t="s">
         <v>267</v>
       </c>
+      <c r="AM43"/>
+      <c r="AN43"/>
+      <c r="AO43"/>
       <c r="AP43" t="s">
         <v>267</v>
       </c>
@@ -15859,7 +15889,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="44" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>320</v>
       </c>
@@ -16089,7 +16119,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="45" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>487</v>
       </c>
@@ -16337,7 +16367,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="46" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>702</v>
       </c>
@@ -16815,7 +16845,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>123</v>
       </c>
@@ -17275,7 +17305,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>139</v>
       </c>
@@ -17771,7 +17801,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>334</v>
       </c>
@@ -18019,7 +18049,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="53" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>1033</v>
       </c>
@@ -18249,7 +18279,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="54" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>212</v>
       </c>
@@ -18727,7 +18757,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>187</v>
       </c>
@@ -18975,7 +19005,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="57" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:82" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -19069,19 +19099,19 @@
       <c r="AH57" t="s">
         <v>182</v>
       </c>
-      <c r="AI57" t="s">
+      <c r="AI57" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AJ57" t="s">
+      <c r="AJ57" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AK57" t="s">
+      <c r="AK57" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AL57" t="s">
+      <c r="AL57" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AP57" t="s">
+      <c r="AP57" s="3" t="s">
         <v>183</v>
       </c>
       <c r="AQ57" t="s">
@@ -19408,7 +19438,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>269</v>
       </c>
@@ -19656,7 +19686,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>1172</v>
       </c>
@@ -19904,7 +19934,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>1181</v>
       </c>
@@ -20152,7 +20182,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="62" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>626</v>
       </c>
@@ -20400,7 +20430,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="63" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>255</v>
       </c>
@@ -20645,7 +20675,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="64" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>1071</v>
       </c>
@@ -20890,7 +20920,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="65" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>1190</v>
       </c>
@@ -21138,7 +21168,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="66" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>99</v>
       </c>
@@ -21631,7 +21661,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>1303</v>
       </c>
@@ -21879,7 +21909,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="69" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>554</v>
       </c>
@@ -22127,7 +22157,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>404</v>
       </c>
@@ -22372,7 +22402,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="71" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>784</v>
       </c>
@@ -22602,7 +22632,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="72" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>433</v>
       </c>
@@ -22847,7 +22877,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="73" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>245</v>
       </c>
@@ -23077,7 +23107,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="74" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>518</v>
       </c>
@@ -23325,7 +23355,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="75" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>1128</v>
       </c>
@@ -23573,7 +23603,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="76" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -23803,7 +23833,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>1007</v>
       </c>
@@ -24033,7 +24063,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="78" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>666</v>
       </c>
@@ -24281,7 +24311,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="79" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>1487</v>
       </c>
@@ -24529,7 +24559,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="80" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>869</v>
       </c>
@@ -24777,7 +24807,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="81" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>1524</v>
       </c>
@@ -24883,6 +24913,9 @@
       <c r="AL81" t="s">
         <v>681</v>
       </c>
+      <c r="AM81"/>
+      <c r="AN81"/>
+      <c r="AO81"/>
       <c r="AP81" t="s">
         <v>267</v>
       </c>
@@ -24959,7 +24992,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="82" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>1532</v>
       </c>
@@ -25207,7 +25240,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="83" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>1546</v>
       </c>
@@ -25455,7 +25488,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="84" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>226</v>
       </c>
@@ -25703,7 +25736,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="85" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>1585</v>
       </c>
@@ -25951,7 +25984,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="86" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:82" ht="399" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>1058</v>
       </c>
@@ -26054,28 +26087,28 @@
       <c r="AH86" t="s">
         <v>1609</v>
       </c>
-      <c r="AI86" t="s">
+      <c r="AI86" s="3" t="s">
         <v>1610</v>
       </c>
-      <c r="AJ86" t="s">
+      <c r="AJ86" s="3" t="s">
         <v>1611</v>
       </c>
-      <c r="AK86" t="s">
+      <c r="AK86" s="3" t="s">
         <v>1611</v>
       </c>
-      <c r="AL86" t="s">
+      <c r="AL86" s="3" t="s">
         <v>1611</v>
       </c>
-      <c r="AM86" t="s">
+      <c r="AM86" s="3" t="s">
         <v>1612</v>
       </c>
-      <c r="AN86" t="s">
+      <c r="AN86" s="3" t="s">
         <v>1612</v>
       </c>
-      <c r="AO86" t="s">
+      <c r="AO86" s="3" t="s">
         <v>1612</v>
       </c>
-      <c r="AP86" t="s">
+      <c r="AP86" s="3" t="s">
         <v>1613</v>
       </c>
       <c r="AQ86" t="s">
@@ -26429,7 +26462,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>177</v>
       </c>
@@ -26678,6 +26711,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CD88" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="80">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/vdf.xlsx
+++ b/vdf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joan Tew\Desktop\Github\ssicsync\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\ssicsync\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A77FDE0-153A-4F3B-A4F2-B65DD71312BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2539DF-D046-419E-9F7E-420A7B40EE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6525" uniqueCount="1642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6523" uniqueCount="1643">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -5551,6 +5551,9 @@
     <t>95303: Vehicle inspection and valuation services
 52292: Freight transport arrangement
 81211: General cleaning services (including cleaning of public areas, offices and factories) except household cleaning and online marketplaces</t>
+  </si>
+  <si>
+    <t>Null</t>
   </si>
 </sst>
 </file>
@@ -5919,24 +5922,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:CD88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AM2"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BP56" sqref="BP56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="37.46484375" customWidth="1"/>
-    <col min="5" max="5" width="29.46484375" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="35" max="35" width="9.06640625" style="3"/>
-    <col min="36" max="36" width="9.06640625" style="3" customWidth="1"/>
-    <col min="37" max="42" width="9.06640625" style="3"/>
+    <col min="35" max="35" width="9.08984375" style="3"/>
+    <col min="36" max="36" width="9.08984375" style="3" customWidth="1"/>
+    <col min="37" max="42" width="9.08984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:82" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -6432,7 +6435,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -6680,7 +6683,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -6928,7 +6931,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:82" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:82" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -7113,7 +7116,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -7361,7 +7364,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:82" ht="47.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:82" ht="47.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -7507,7 +7510,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:82" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:82" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>210</v>
       </c>
@@ -7737,7 +7740,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -7985,7 +7988,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:82" ht="60.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:82" ht="60.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -8170,7 +8173,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:82" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:82" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>253</v>
       </c>
@@ -8355,7 +8358,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -8603,7 +8606,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>298</v>
       </c>
@@ -8851,7 +8854,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="14" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>318</v>
       </c>
@@ -9018,7 +9021,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>326</v>
       </c>
@@ -9266,7 +9269,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>345</v>
       </c>
@@ -9496,7 +9499,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>349</v>
       </c>
@@ -9744,7 +9747,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="18" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>390</v>
       </c>
@@ -9992,7 +9995,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="19" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -10240,7 +10243,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="20" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -10470,7 +10473,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>261</v>
       </c>
@@ -10718,7 +10721,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>190</v>
       </c>
@@ -10966,7 +10969,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="23" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>516</v>
       </c>
@@ -11214,7 +11217,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>541</v>
       </c>
@@ -11444,7 +11447,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="25" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>147</v>
       </c>
@@ -11692,7 +11695,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="26" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>215</v>
       </c>
@@ -11940,7 +11943,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="27" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -12185,7 +12188,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="28" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>619</v>
       </c>
@@ -12370,7 +12373,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>624</v>
       </c>
@@ -12615,7 +12618,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="30" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>229</v>
       </c>
@@ -12863,7 +12866,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="31" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -13111,7 +13114,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>458</v>
       </c>
@@ -13359,7 +13362,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>700</v>
       </c>
@@ -13589,7 +13592,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>218</v>
       </c>
@@ -13837,7 +13840,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="35" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>732</v>
       </c>
@@ -14067,7 +14070,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>275</v>
       </c>
@@ -14297,7 +14300,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="37" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>762</v>
       </c>
@@ -14545,7 +14548,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="38" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>782</v>
       </c>
@@ -14772,7 +14775,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="39" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>641</v>
       </c>
@@ -15020,7 +15023,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>817</v>
       </c>
@@ -15268,7 +15271,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="41" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>830</v>
       </c>
@@ -15516,7 +15519,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="42" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>853</v>
       </c>
@@ -15704,7 +15707,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="43" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>151</v>
       </c>
@@ -15889,7 +15892,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="44" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>320</v>
       </c>
@@ -16119,7 +16122,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="45" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>487</v>
       </c>
@@ -16367,7 +16370,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="46" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>702</v>
       </c>
@@ -16615,7 +16618,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="47" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>935</v>
       </c>
@@ -16845,7 +16848,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>123</v>
       </c>
@@ -17075,7 +17078,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="49" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -17305,7 +17308,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>139</v>
       </c>
@@ -17553,7 +17556,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="51" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>981</v>
       </c>
@@ -17801,7 +17804,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>334</v>
       </c>
@@ -18049,7 +18052,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="53" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>1033</v>
       </c>
@@ -18279,7 +18282,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="54" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>212</v>
       </c>
@@ -18527,7 +18530,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="55" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>819</v>
       </c>
@@ -18757,7 +18760,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>187</v>
       </c>
@@ -18803,12 +18806,6 @@
       <c r="O56" t="s">
         <v>1109</v>
       </c>
-      <c r="P56" t="s">
-        <v>1117</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>402</v>
-      </c>
       <c r="R56" t="s">
         <v>94</v>
       </c>
@@ -18945,19 +18942,19 @@
         <v>111</v>
       </c>
       <c r="BK56" t="s">
-        <v>161</v>
+        <v>1642</v>
       </c>
       <c r="BL56" t="s">
-        <v>161</v>
+        <v>1642</v>
       </c>
       <c r="BM56" t="s">
-        <v>161</v>
+        <v>1642</v>
       </c>
       <c r="BN56" t="s">
-        <v>161</v>
+        <v>1642</v>
       </c>
       <c r="BO56" t="s">
-        <v>111</v>
+        <v>1642</v>
       </c>
       <c r="BP56" t="s">
         <v>161</v>
@@ -19005,7 +19002,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="57" spans="1:82" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:82" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -19190,7 +19187,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -19438,7 +19435,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>269</v>
       </c>
@@ -19686,7 +19683,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1172</v>
       </c>
@@ -19934,7 +19931,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>1181</v>
       </c>
@@ -20182,7 +20179,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="62" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>626</v>
       </c>
@@ -20430,7 +20427,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="63" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>255</v>
       </c>
@@ -20675,7 +20672,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="64" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>1071</v>
       </c>
@@ -20920,7 +20917,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="65" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>1190</v>
       </c>
@@ -21168,7 +21165,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="66" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>99</v>
       </c>
@@ -21413,7 +21410,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="67" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>420</v>
       </c>
@@ -21661,7 +21658,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>1303</v>
       </c>
@@ -21909,7 +21906,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="69" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>554</v>
       </c>
@@ -22157,7 +22154,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>404</v>
       </c>
@@ -22402,7 +22399,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="71" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>784</v>
       </c>
@@ -22632,7 +22629,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="72" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>433</v>
       </c>
@@ -22877,7 +22874,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="73" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>245</v>
       </c>
@@ -23107,7 +23104,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="74" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>518</v>
       </c>
@@ -23355,7 +23352,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="75" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>1128</v>
       </c>
@@ -23603,7 +23600,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="76" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -23833,7 +23830,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>1007</v>
       </c>
@@ -24063,7 +24060,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="78" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>666</v>
       </c>
@@ -24311,7 +24308,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="79" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1487</v>
       </c>
@@ -24559,7 +24556,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="80" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>869</v>
       </c>
@@ -24807,7 +24804,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="81" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>1524</v>
       </c>
@@ -24992,7 +24989,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="82" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>1532</v>
       </c>
@@ -25240,7 +25237,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="83" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>1546</v>
       </c>
@@ -25488,7 +25485,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="84" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>226</v>
       </c>
@@ -25736,7 +25733,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="85" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1585</v>
       </c>
@@ -25984,7 +25981,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="86" spans="1:82" ht="399" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:82" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1058</v>
       </c>
@@ -26232,7 +26229,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="87" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1183</v>
       </c>
@@ -26462,7 +26459,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:82" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>177</v>
       </c>
@@ -26711,13 +26708,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CD88" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="80">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:CD88" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/vdf.xlsx
+++ b/vdf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\ssicsync\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2539DF-D046-419E-9F7E-420A7B40EE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DA2148-0564-4D89-B2B4-E2DAD2273AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5553,7 +5553,7 @@
 81211: General cleaning services (including cleaning of public areas, offices and factories) except household cleaning and online marketplaces</t>
   </si>
   <si>
-    <t>Null</t>
+    <t>NA</t>
   </si>
 </sst>
 </file>

--- a/vdf.xlsx
+++ b/vdf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\ssicsync\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DA2148-0564-4D89-B2B4-E2DAD2273AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D34DCD1-8ED1-457A-8571-5DB2795F8996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5553,7 +5553,7 @@
 81211: General cleaning services (including cleaning of public areas, offices and factories) except household cleaning and online marketplaces</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -5926,7 +5926,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BP56" sqref="BP56"/>
+      <selection pane="bottomLeft" activeCell="BO56" sqref="BO56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/vdf.xlsx
+++ b/vdf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\ssicsync\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D34DCD1-8ED1-457A-8571-5DB2795F8996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8975821-414B-4EB5-A7BC-746400342BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5553,7 +5553,7 @@
 81211: General cleaning services (including cleaning of public areas, offices and factories) except household cleaning and online marketplaces</t>
   </si>
   <si>
-    <t>NULL</t>
+    <t>Null</t>
   </si>
 </sst>
 </file>
@@ -5926,7 +5926,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BO56" sqref="BO56"/>
+      <selection pane="bottomLeft" activeCell="BL56" sqref="BL56:BO56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/vdf.xlsx
+++ b/vdf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\ssicsync\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8975821-414B-4EB5-A7BC-746400342BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31EEE90-4EAA-4AAB-B1E9-9A2D6DD26DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5574,12 +5574,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -5609,7 +5615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5620,6 +5626,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5924,19 +5934,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BL56" sqref="BL56:BO56"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="37.453125" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="5"/>
+    <col min="5" max="5" width="29.453125" style="5" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="16" max="17" width="8.7265625" style="5"/>
+    <col min="33" max="33" width="8.7265625" style="5"/>
     <col min="35" max="35" width="9.08984375" style="3"/>
     <col min="36" max="36" width="9.08984375" style="3" customWidth="1"/>
     <col min="37" max="42" width="9.08984375" style="3"/>
+    <col min="63" max="67" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="58" x14ac:dyDescent="0.35">
@@ -5949,10 +5963,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -5985,10 +5999,10 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -6036,7 +6050,7 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
@@ -6126,19 +6140,19 @@
       <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="4" t="s">
         <v>66</v>
       </c>
       <c r="BP1" s="1" t="s">
@@ -6197,10 +6211,10 @@
       <c r="C2" t="s">
         <v>84</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>86</v>
       </c>
       <c r="F2" t="s">
@@ -6233,10 +6247,10 @@
       <c r="O2" t="s">
         <v>85</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R2" t="s">
@@ -6284,7 +6298,7 @@
       <c r="AF2" t="s">
         <v>104</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="5" t="s">
         <v>105</v>
       </c>
       <c r="AH2" t="s">
@@ -6374,19 +6388,19 @@
       <c r="BJ2" t="s">
         <v>111</v>
       </c>
-      <c r="BK2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO2" t="s">
+      <c r="BK2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO2" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP2" t="s">
@@ -6445,10 +6459,10 @@
       <c r="C3" t="s">
         <v>115</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>117</v>
       </c>
       <c r="F3" t="s">
@@ -6481,10 +6495,10 @@
       <c r="O3" t="s">
         <v>116</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="5" t="s">
         <v>122</v>
       </c>
       <c r="R3" t="s">
@@ -6532,7 +6546,7 @@
       <c r="AF3" t="s">
         <v>132</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="5" t="s">
         <v>132</v>
       </c>
       <c r="AH3" t="s">
@@ -6622,19 +6636,19 @@
       <c r="BJ3" t="s">
         <v>111</v>
       </c>
-      <c r="BK3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO3" t="s">
+      <c r="BK3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO3" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP3" t="s">
@@ -6693,10 +6707,10 @@
       <c r="C4" t="s">
         <v>139</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>141</v>
       </c>
       <c r="F4" t="s">
@@ -6729,10 +6743,10 @@
       <c r="O4" t="s">
         <v>140</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>146</v>
       </c>
       <c r="R4" t="s">
@@ -6780,7 +6794,7 @@
       <c r="AF4" t="s">
         <v>156</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG4" s="5" t="s">
         <v>156</v>
       </c>
       <c r="AH4" t="s">
@@ -6870,19 +6884,19 @@
       <c r="BJ4" t="s">
         <v>111</v>
       </c>
-      <c r="BK4" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO4" t="s">
+      <c r="BK4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO4" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP4" t="s">
@@ -6941,10 +6955,10 @@
       <c r="C5" t="s">
         <v>165</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>167</v>
       </c>
       <c r="F5" t="s">
@@ -6968,10 +6982,10 @@
       <c r="O5" t="s">
         <v>166</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>171</v>
       </c>
       <c r="R5" t="s">
@@ -7019,7 +7033,7 @@
       <c r="AF5" t="s">
         <v>182</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AG5" s="5" t="s">
         <v>182</v>
       </c>
       <c r="AH5" t="s">
@@ -7126,10 +7140,10 @@
       <c r="C6" t="s">
         <v>187</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>189</v>
       </c>
       <c r="F6" t="s">
@@ -7162,10 +7176,10 @@
       <c r="O6" t="s">
         <v>188</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="5" t="s">
         <v>193</v>
       </c>
       <c r="R6" t="s">
@@ -7213,7 +7227,7 @@
       <c r="AF6" t="s">
         <v>198</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AG6" s="5" t="s">
         <v>198</v>
       </c>
       <c r="AH6" t="s">
@@ -7303,19 +7317,19 @@
       <c r="BJ6" t="s">
         <v>111</v>
       </c>
-      <c r="BK6" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO6" t="s">
+      <c r="BK6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO6" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP6" t="s">
@@ -7374,10 +7388,10 @@
       <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>207</v>
       </c>
       <c r="F7" t="s">
@@ -7413,7 +7427,7 @@
       <c r="AF7" t="s">
         <v>182</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AG7" s="5" t="s">
         <v>182</v>
       </c>
       <c r="AH7" t="s">
@@ -7520,10 +7534,10 @@
       <c r="C8" t="s">
         <v>212</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>214</v>
       </c>
       <c r="F8" t="s">
@@ -7556,7 +7570,7 @@
       <c r="O8" t="s">
         <v>213</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="5" t="s">
         <v>217</v>
       </c>
       <c r="R8" t="s">
@@ -7589,7 +7603,7 @@
       <c r="AF8" t="s">
         <v>222</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AG8" s="5" t="s">
         <v>222</v>
       </c>
       <c r="AH8" t="s">
@@ -7679,19 +7693,19 @@
       <c r="BJ8" t="s">
         <v>111</v>
       </c>
-      <c r="BK8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO8" t="s">
+      <c r="BK8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO8" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP8" t="s">
@@ -7750,10 +7764,10 @@
       <c r="C9" t="s">
         <v>226</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>228</v>
       </c>
       <c r="F9" t="s">
@@ -7786,10 +7800,10 @@
       <c r="O9" t="s">
         <v>227</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="5" t="s">
         <v>233</v>
       </c>
       <c r="R9" t="s">
@@ -7837,7 +7851,7 @@
       <c r="AF9" t="s">
         <v>238</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AG9" s="5" t="s">
         <v>238</v>
       </c>
       <c r="AH9" t="s">
@@ -7927,19 +7941,19 @@
       <c r="BJ9" t="s">
         <v>161</v>
       </c>
-      <c r="BK9" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO9" t="s">
+      <c r="BK9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO9" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP9" t="s">
@@ -7998,10 +8012,10 @@
       <c r="C10" t="s">
         <v>245</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>207</v>
       </c>
       <c r="F10" t="s">
@@ -8025,10 +8039,10 @@
       <c r="O10" t="s">
         <v>246</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="5" t="s">
         <v>248</v>
       </c>
       <c r="R10" t="s">
@@ -8076,7 +8090,7 @@
       <c r="AF10" t="s">
         <v>182</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AG10" s="5" t="s">
         <v>182</v>
       </c>
       <c r="AH10" t="s">
@@ -8183,10 +8197,10 @@
       <c r="C11" t="s">
         <v>255</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>257</v>
       </c>
       <c r="F11" t="s">
@@ -8210,10 +8224,10 @@
       <c r="O11" t="s">
         <v>256</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="5" t="s">
         <v>260</v>
       </c>
       <c r="R11" t="s">
@@ -8261,7 +8275,7 @@
       <c r="AF11" t="s">
         <v>182</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AG11" s="5" t="s">
         <v>182</v>
       </c>
       <c r="AH11" t="s">
@@ -8368,10 +8382,10 @@
       <c r="C12" t="s">
         <v>269</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>271</v>
       </c>
       <c r="F12" t="s">
@@ -8404,10 +8418,10 @@
       <c r="O12" t="s">
         <v>270</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="5" t="s">
         <v>281</v>
       </c>
       <c r="R12" t="s">
@@ -8455,7 +8469,7 @@
       <c r="AF12" t="s">
         <v>289</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AG12" s="5" t="s">
         <v>290</v>
       </c>
       <c r="AH12" t="s">
@@ -8545,19 +8559,19 @@
       <c r="BJ12" t="s">
         <v>111</v>
       </c>
-      <c r="BK12" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO12" t="s">
+      <c r="BK12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO12" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP12" t="s">
@@ -8616,10 +8630,10 @@
       <c r="C13" t="s">
         <v>269</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>301</v>
       </c>
       <c r="F13" t="s">
@@ -8652,10 +8666,10 @@
       <c r="O13" t="s">
         <v>300</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="5" t="s">
         <v>146</v>
       </c>
       <c r="R13" t="s">
@@ -8703,7 +8717,7 @@
       <c r="AF13" t="s">
         <v>310</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AG13" s="5" t="s">
         <v>311</v>
       </c>
       <c r="AH13" t="s">
@@ -8793,19 +8807,19 @@
       <c r="BJ13" t="s">
         <v>111</v>
       </c>
-      <c r="BK13" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO13" t="s">
+      <c r="BK13" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO13" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP13" t="s">
@@ -8864,10 +8878,10 @@
       <c r="C14" t="s">
         <v>320</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>322</v>
       </c>
       <c r="F14" t="s">
@@ -8891,7 +8905,7 @@
       <c r="O14" t="s">
         <v>321</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="5" t="s">
         <v>323</v>
       </c>
       <c r="R14" t="s">
@@ -8924,7 +8938,7 @@
       <c r="AF14" t="s">
         <v>182</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AG14" s="5" t="s">
         <v>182</v>
       </c>
       <c r="AH14" t="s">
@@ -9031,10 +9045,10 @@
       <c r="C15" t="s">
         <v>226</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>329</v>
       </c>
       <c r="F15" t="s">
@@ -9067,10 +9081,10 @@
       <c r="O15" t="s">
         <v>328</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R15" t="s">
@@ -9118,7 +9132,7 @@
       <c r="AF15" t="s">
         <v>339</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AG15" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AH15" t="s">
@@ -9208,19 +9222,19 @@
       <c r="BJ15" t="s">
         <v>111</v>
       </c>
-      <c r="BK15" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO15" t="s">
+      <c r="BK15" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL15" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM15" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO15" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP15" t="s">
@@ -9279,10 +9293,10 @@
       <c r="C16" t="s">
         <v>320</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="5" t="s">
         <v>348</v>
       </c>
       <c r="F16" t="s">
@@ -9315,7 +9329,7 @@
       <c r="O16" t="s">
         <v>347</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="5" t="s">
         <v>352</v>
       </c>
       <c r="R16" t="s">
@@ -9348,7 +9362,7 @@
       <c r="AF16" t="s">
         <v>356</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AG16" s="5" t="s">
         <v>356</v>
       </c>
       <c r="AH16" t="s">
@@ -9438,19 +9452,19 @@
       <c r="BJ16" t="s">
         <v>111</v>
       </c>
-      <c r="BK16" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN16" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO16" t="s">
+      <c r="BK16" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL16" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO16" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP16" t="s">
@@ -9509,10 +9523,10 @@
       <c r="C17" t="s">
         <v>361</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>363</v>
       </c>
       <c r="F17" t="s">
@@ -9545,10 +9559,10 @@
       <c r="O17" t="s">
         <v>362</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="5" t="s">
         <v>371</v>
       </c>
       <c r="R17" t="s">
@@ -9596,7 +9610,7 @@
       <c r="AF17" t="s">
         <v>378</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AG17" s="5" t="s">
         <v>379</v>
       </c>
       <c r="AH17" t="s">
@@ -9686,19 +9700,19 @@
       <c r="BJ17" t="s">
         <v>111</v>
       </c>
-      <c r="BK17" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN17" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO17" t="s">
+      <c r="BK17" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL17" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO17" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP17" t="s">
@@ -9757,10 +9771,10 @@
       <c r="C18" t="s">
         <v>99</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="5" t="s">
         <v>393</v>
       </c>
       <c r="F18" t="s">
@@ -9793,10 +9807,10 @@
       <c r="O18" t="s">
         <v>392</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R18" t="s">
@@ -9844,7 +9858,7 @@
       <c r="AF18" t="s">
         <v>410</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AG18" s="5" t="s">
         <v>411</v>
       </c>
       <c r="AH18" t="s">
@@ -9934,19 +9948,19 @@
       <c r="BJ18" t="s">
         <v>111</v>
       </c>
-      <c r="BK18" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN18" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO18" t="s">
+      <c r="BK18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO18" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP18" t="s">
@@ -10005,10 +10019,10 @@
       <c r="C19" t="s">
         <v>420</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="5" t="s">
         <v>422</v>
       </c>
       <c r="F19" t="s">
@@ -10041,10 +10055,10 @@
       <c r="O19" t="s">
         <v>421</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R19" t="s">
@@ -10092,7 +10106,7 @@
       <c r="AF19" t="s">
         <v>440</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AG19" s="5" t="s">
         <v>441</v>
       </c>
       <c r="AH19" t="s">
@@ -10182,19 +10196,19 @@
       <c r="BJ19" t="s">
         <v>111</v>
       </c>
-      <c r="BK19" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN19" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO19" t="s">
+      <c r="BK19" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO19" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP19" t="s">
@@ -10253,10 +10267,10 @@
       <c r="C20" t="s">
         <v>275</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="5" t="s">
         <v>454</v>
       </c>
       <c r="F20" t="s">
@@ -10289,7 +10303,7 @@
       <c r="O20" t="s">
         <v>453</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="5" t="s">
         <v>463</v>
       </c>
       <c r="R20" t="s">
@@ -10322,7 +10336,7 @@
       <c r="AF20" t="s">
         <v>470</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AG20" s="5" t="s">
         <v>471</v>
       </c>
       <c r="AH20" t="s">
@@ -10412,19 +10426,19 @@
       <c r="BJ20" t="s">
         <v>111</v>
       </c>
-      <c r="BK20" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN20" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO20" t="s">
+      <c r="BK20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO20" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP20" t="s">
@@ -10483,10 +10497,10 @@
       <c r="C21" t="s">
         <v>480</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="5" t="s">
         <v>482</v>
       </c>
       <c r="F21" t="s">
@@ -10519,10 +10533,10 @@
       <c r="O21" t="s">
         <v>481</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="5" t="s">
         <v>486</v>
       </c>
       <c r="R21" t="s">
@@ -10570,7 +10584,7 @@
       <c r="AF21" t="s">
         <v>492</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AG21" s="5" t="s">
         <v>493</v>
       </c>
       <c r="AH21" t="s">
@@ -10660,19 +10674,19 @@
       <c r="BJ21" t="s">
         <v>111</v>
       </c>
-      <c r="BK21" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO21" t="s">
+      <c r="BK21" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL21" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO21" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP21" t="s">
@@ -10731,10 +10745,10 @@
       <c r="C22" t="s">
         <v>500</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="5" t="s">
         <v>502</v>
       </c>
       <c r="F22" t="s">
@@ -10767,10 +10781,10 @@
       <c r="O22" t="s">
         <v>501</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R22" t="s">
@@ -10818,7 +10832,7 @@
       <c r="AF22" t="s">
         <v>510</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AG22" s="5" t="s">
         <v>510</v>
       </c>
       <c r="AH22" t="s">
@@ -10908,19 +10922,19 @@
       <c r="BJ22" t="s">
         <v>111</v>
       </c>
-      <c r="BK22" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN22" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO22" t="s">
+      <c r="BK22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO22" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP22" t="s">
@@ -10979,10 +10993,10 @@
       <c r="C23" t="s">
         <v>518</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="5" t="s">
         <v>520</v>
       </c>
       <c r="F23" t="s">
@@ -11015,10 +11029,10 @@
       <c r="O23" t="s">
         <v>519</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R23" t="s">
@@ -11066,7 +11080,7 @@
       <c r="AF23" t="s">
         <v>531</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AG23" s="5" t="s">
         <v>532</v>
       </c>
       <c r="AH23" t="s">
@@ -11156,19 +11170,19 @@
       <c r="BJ23" t="s">
         <v>111</v>
       </c>
-      <c r="BK23" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN23" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO23" t="s">
+      <c r="BK23" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO23" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP23" t="s">
@@ -11227,10 +11241,10 @@
       <c r="C24" t="s">
         <v>543</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="5" t="s">
         <v>545</v>
       </c>
       <c r="F24" t="s">
@@ -11263,7 +11277,7 @@
       <c r="O24" t="s">
         <v>544</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="5" t="s">
         <v>323</v>
       </c>
       <c r="R24" t="s">
@@ -11296,7 +11310,7 @@
       <c r="AF24" t="s">
         <v>549</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AG24" s="5" t="s">
         <v>549</v>
       </c>
       <c r="AH24" t="s">
@@ -11386,19 +11400,19 @@
       <c r="BJ24" t="s">
         <v>111</v>
       </c>
-      <c r="BK24" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN24" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO24" t="s">
+      <c r="BK24" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL24" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM24" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN24" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO24" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP24" t="s">
@@ -11457,10 +11471,10 @@
       <c r="C25" t="s">
         <v>554</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="5" t="s">
         <v>556</v>
       </c>
       <c r="F25" t="s">
@@ -11493,10 +11507,10 @@
       <c r="O25" t="s">
         <v>555</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" s="5" t="s">
         <v>565</v>
       </c>
       <c r="R25" t="s">
@@ -11544,7 +11558,7 @@
       <c r="AF25" t="s">
         <v>573</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AG25" s="5" t="s">
         <v>571</v>
       </c>
       <c r="AH25" t="s">
@@ -11634,19 +11648,19 @@
       <c r="BJ25" t="s">
         <v>111</v>
       </c>
-      <c r="BK25" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN25" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO25" t="s">
+      <c r="BK25" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL25" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM25" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN25" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO25" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP25" t="s">
@@ -11705,10 +11719,10 @@
       <c r="C26" t="s">
         <v>583</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="5" t="s">
         <v>585</v>
       </c>
       <c r="F26" t="s">
@@ -11741,10 +11755,10 @@
       <c r="O26" t="s">
         <v>584</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q26" s="5" t="s">
         <v>588</v>
       </c>
       <c r="R26" t="s">
@@ -11792,7 +11806,7 @@
       <c r="AF26" t="s">
         <v>593</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AG26" s="5" t="s">
         <v>593</v>
       </c>
       <c r="AH26" t="s">
@@ -11882,19 +11896,19 @@
       <c r="BJ26" t="s">
         <v>111</v>
       </c>
-      <c r="BK26" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN26" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO26" t="s">
+      <c r="BK26" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL26" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM26" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN26" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO26" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP26" t="s">
@@ -11953,10 +11967,10 @@
       <c r="C27" t="s">
         <v>598</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="5" t="s">
         <v>600</v>
       </c>
       <c r="F27" t="s">
@@ -11989,10 +12003,10 @@
       <c r="O27" t="s">
         <v>599</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q27" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R27" t="s">
@@ -12040,7 +12054,7 @@
       <c r="AF27" t="s">
         <v>612</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AG27" s="5" t="s">
         <v>376</v>
       </c>
       <c r="AH27" t="s">
@@ -12130,19 +12144,19 @@
       <c r="BJ27" t="s">
         <v>161</v>
       </c>
-      <c r="BK27" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN27" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO27" t="s">
+      <c r="BK27" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL27" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM27" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN27" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO27" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP27" t="s">
@@ -12198,10 +12212,10 @@
       <c r="C28" t="s">
         <v>621</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="5" t="s">
         <v>322</v>
       </c>
       <c r="F28" t="s">
@@ -12225,10 +12239,10 @@
       <c r="O28" t="s">
         <v>622</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q28" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R28" t="s">
@@ -12276,7 +12290,7 @@
       <c r="AF28" t="s">
         <v>182</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AG28" s="5" t="s">
         <v>182</v>
       </c>
       <c r="AH28" t="s">
@@ -12383,10 +12397,10 @@
       <c r="C29" t="s">
         <v>626</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="5" t="s">
         <v>628</v>
       </c>
       <c r="F29" t="s">
@@ -12419,10 +12433,10 @@
       <c r="O29" t="s">
         <v>627</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q29" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R29" t="s">
@@ -12470,7 +12484,7 @@
       <c r="AF29" t="s">
         <v>631</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AG29" s="5" t="s">
         <v>631</v>
       </c>
       <c r="AH29" t="s">
@@ -12560,19 +12574,19 @@
       <c r="BJ29" t="s">
         <v>161</v>
       </c>
-      <c r="BK29" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM29" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN29" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO29" t="s">
+      <c r="BK29" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL29" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM29" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN29" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO29" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP29" t="s">
@@ -12628,10 +12642,10 @@
       <c r="C30" t="s">
         <v>624</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="5" t="s">
         <v>637</v>
       </c>
       <c r="F30" t="s">
@@ -12664,10 +12678,10 @@
       <c r="O30" t="s">
         <v>636</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q30" s="5" t="s">
         <v>647</v>
       </c>
       <c r="R30" t="s">
@@ -12715,7 +12729,7 @@
       <c r="AF30" t="s">
         <v>654</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AG30" s="5" t="s">
         <v>655</v>
       </c>
       <c r="AH30" t="s">
@@ -12805,19 +12819,19 @@
       <c r="BJ30" t="s">
         <v>111</v>
       </c>
-      <c r="BK30" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM30" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN30" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO30" t="s">
+      <c r="BK30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO30" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP30" t="s">
@@ -12876,10 +12890,10 @@
       <c r="C31" t="s">
         <v>666</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="5" t="s">
         <v>668</v>
       </c>
       <c r="F31" t="s">
@@ -12912,10 +12926,10 @@
       <c r="O31" t="s">
         <v>667</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q31" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R31" t="s">
@@ -12963,7 +12977,7 @@
       <c r="AF31" t="s">
         <v>678</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AG31" s="5" t="s">
         <v>679</v>
       </c>
       <c r="AH31" t="s">
@@ -13053,19 +13067,19 @@
       <c r="BJ31" t="s">
         <v>111</v>
       </c>
-      <c r="BK31" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM31" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN31" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO31" t="s">
+      <c r="BK31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO31" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP31" t="s">
@@ -13124,10 +13138,10 @@
       <c r="C32" t="s">
         <v>115</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="5" t="s">
         <v>687</v>
       </c>
       <c r="F32" t="s">
@@ -13160,10 +13174,10 @@
       <c r="O32" t="s">
         <v>686</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q32" s="5" t="s">
         <v>463</v>
       </c>
       <c r="R32" t="s">
@@ -13211,7 +13225,7 @@
       <c r="AF32" t="s">
         <v>695</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="AG32" s="5" t="s">
         <v>695</v>
       </c>
       <c r="AH32" t="s">
@@ -13301,19 +13315,19 @@
       <c r="BJ32" t="s">
         <v>111</v>
       </c>
-      <c r="BK32" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN32" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO32" t="s">
+      <c r="BK32" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL32" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO32" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP32" t="s">
@@ -13372,10 +13386,10 @@
       <c r="C33" t="s">
         <v>702</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="5" t="s">
         <v>704</v>
       </c>
       <c r="F33" t="s">
@@ -13408,7 +13422,7 @@
       <c r="O33" t="s">
         <v>703</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="5" t="s">
         <v>707</v>
       </c>
       <c r="R33" t="s">
@@ -13441,7 +13455,7 @@
       <c r="AF33" t="s">
         <v>712</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AG33" s="5" t="s">
         <v>712</v>
       </c>
       <c r="AH33" t="s">
@@ -13531,19 +13545,19 @@
       <c r="BJ33" t="s">
         <v>111</v>
       </c>
-      <c r="BK33" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO33" t="s">
+      <c r="BK33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO33" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP33" t="s">
@@ -13602,10 +13616,10 @@
       <c r="C34" t="s">
         <v>261</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="5" t="s">
         <v>718</v>
       </c>
       <c r="F34" t="s">
@@ -13638,10 +13652,10 @@
       <c r="O34" t="s">
         <v>717</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="Q34" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R34" t="s">
@@ -13689,7 +13703,7 @@
       <c r="AF34" t="s">
         <v>288</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AG34" s="5" t="s">
         <v>729</v>
       </c>
       <c r="AH34" t="s">
@@ -13779,19 +13793,19 @@
       <c r="BJ34" t="s">
         <v>161</v>
       </c>
-      <c r="BK34" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO34" t="s">
+      <c r="BK34" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL34" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO34" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP34" t="s">
@@ -13850,10 +13864,10 @@
       <c r="C35" t="s">
         <v>734</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="5" t="s">
         <v>736</v>
       </c>
       <c r="F35" t="s">
@@ -13886,7 +13900,7 @@
       <c r="O35" t="s">
         <v>735</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="5" t="s">
         <v>707</v>
       </c>
       <c r="R35" t="s">
@@ -13919,7 +13933,7 @@
       <c r="AF35" t="s">
         <v>739</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AG35" s="5" t="s">
         <v>739</v>
       </c>
       <c r="AH35" t="s">
@@ -14009,19 +14023,19 @@
       <c r="BJ35" t="s">
         <v>161</v>
       </c>
-      <c r="BK35" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM35" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN35" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO35" t="s">
+      <c r="BK35" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL35" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM35" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN35" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO35" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP35" t="s">
@@ -14080,10 +14094,10 @@
       <c r="C36" t="s">
         <v>666</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="5" t="s">
         <v>743</v>
       </c>
       <c r="F36" t="s">
@@ -14116,7 +14130,7 @@
       <c r="O36" t="s">
         <v>742</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="5" t="s">
         <v>323</v>
       </c>
       <c r="R36" t="s">
@@ -14149,7 +14163,7 @@
       <c r="AF36" t="s">
         <v>753</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AG36" s="5" t="s">
         <v>754</v>
       </c>
       <c r="AH36" t="s">
@@ -14239,19 +14253,19 @@
       <c r="BJ36" t="s">
         <v>111</v>
       </c>
-      <c r="BK36" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL36" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM36" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN36" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO36" t="s">
+      <c r="BK36" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL36" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO36" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP36" t="s">
@@ -14310,10 +14324,10 @@
       <c r="C37" t="s">
         <v>764</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="5" t="s">
         <v>766</v>
       </c>
       <c r="F37" t="s">
@@ -14346,10 +14360,10 @@
       <c r="O37" t="s">
         <v>765</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="Q37" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R37" t="s">
@@ -14397,7 +14411,7 @@
       <c r="AF37" t="s">
         <v>774</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AG37" s="5" t="s">
         <v>775</v>
       </c>
       <c r="AH37" t="s">
@@ -14487,19 +14501,19 @@
       <c r="BJ37" t="s">
         <v>111</v>
       </c>
-      <c r="BK37" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL37" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM37" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN37" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO37" t="s">
+      <c r="BK37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO37" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP37" t="s">
@@ -14558,10 +14572,10 @@
       <c r="C38" t="s">
         <v>784</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="5" t="s">
         <v>786</v>
       </c>
       <c r="F38" t="s">
@@ -14594,7 +14608,7 @@
       <c r="O38" t="s">
         <v>785</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="5" t="s">
         <v>794</v>
       </c>
       <c r="R38" t="s">
@@ -14627,7 +14641,7 @@
       <c r="AF38" t="s">
         <v>798</v>
       </c>
-      <c r="AG38" t="s">
+      <c r="AG38" s="5" t="s">
         <v>800</v>
       </c>
       <c r="AH38" t="s">
@@ -14717,19 +14731,19 @@
       <c r="BJ38" t="s">
         <v>161</v>
       </c>
-      <c r="BK38" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL38" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM38" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN38" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO38" t="s">
+      <c r="BK38" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL38" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM38" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN38" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO38" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP38" t="s">
@@ -14785,10 +14799,10 @@
       <c r="C39" t="s">
         <v>487</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="5" t="s">
         <v>806</v>
       </c>
       <c r="F39" t="s">
@@ -14821,10 +14835,10 @@
       <c r="O39" t="s">
         <v>805</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="Q39" s="5" t="s">
         <v>810</v>
       </c>
       <c r="R39" t="s">
@@ -14872,7 +14886,7 @@
       <c r="AF39" t="s">
         <v>815</v>
       </c>
-      <c r="AG39" t="s">
+      <c r="AG39" s="5" t="s">
         <v>815</v>
       </c>
       <c r="AH39" t="s">
@@ -14962,19 +14976,19 @@
       <c r="BJ39" t="s">
         <v>111</v>
       </c>
-      <c r="BK39" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL39" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM39" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN39" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO39" t="s">
+      <c r="BK39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO39" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP39" t="s">
@@ -15033,10 +15047,10 @@
       <c r="C40" t="s">
         <v>819</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="5" t="s">
         <v>820</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="5" t="s">
         <v>821</v>
       </c>
       <c r="F40" t="s">
@@ -15069,10 +15083,10 @@
       <c r="O40" t="s">
         <v>820</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="Q40" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R40" t="s">
@@ -15120,7 +15134,7 @@
       <c r="AF40" t="s">
         <v>826</v>
       </c>
-      <c r="AG40" t="s">
+      <c r="AG40" s="5" t="s">
         <v>826</v>
       </c>
       <c r="AH40" t="s">
@@ -15210,19 +15224,19 @@
       <c r="BJ40" t="s">
         <v>111</v>
       </c>
-      <c r="BK40" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL40" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM40" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN40" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO40" t="s">
+      <c r="BK40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO40" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP40" t="s">
@@ -15281,10 +15295,10 @@
       <c r="C41" t="s">
         <v>832</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="5" t="s">
         <v>834</v>
       </c>
       <c r="F41" t="s">
@@ -15317,10 +15331,10 @@
       <c r="O41" t="s">
         <v>833</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="Q41" s="5" t="s">
         <v>839</v>
       </c>
       <c r="R41" t="s">
@@ -15368,7 +15382,7 @@
       <c r="AF41" t="s">
         <v>846</v>
       </c>
-      <c r="AG41" t="s">
+      <c r="AG41" s="5" t="s">
         <v>847</v>
       </c>
       <c r="AH41" t="s">
@@ -15458,19 +15472,19 @@
       <c r="BJ41" t="s">
         <v>111</v>
       </c>
-      <c r="BK41" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL41" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM41" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN41" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO41" t="s">
+      <c r="BK41" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL41" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM41" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN41" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO41" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP41" t="s">
@@ -15529,10 +15543,10 @@
       <c r="C42" t="s">
         <v>433</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="5" t="s">
         <v>856</v>
       </c>
       <c r="F42" t="s">
@@ -15556,10 +15570,10 @@
       <c r="O42" t="s">
         <v>855</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="Q42" s="5" t="s">
         <v>463</v>
       </c>
       <c r="R42" t="s">
@@ -15607,7 +15621,7 @@
       <c r="AF42" t="s">
         <v>182</v>
       </c>
-      <c r="AG42" t="s">
+      <c r="AG42" s="5" t="s">
         <v>182</v>
       </c>
       <c r="AH42" t="s">
@@ -15717,10 +15731,10 @@
       <c r="C43" t="s">
         <v>862</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="5" t="s">
         <v>322</v>
       </c>
       <c r="F43" t="s">
@@ -15744,10 +15758,10 @@
       <c r="O43" t="s">
         <v>863</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="5" t="s">
         <v>864</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="Q43" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R43" t="s">
@@ -15795,7 +15809,7 @@
       <c r="AF43" t="s">
         <v>182</v>
       </c>
-      <c r="AG43" t="s">
+      <c r="AG43" s="5" t="s">
         <v>182</v>
       </c>
       <c r="AH43" t="s">
@@ -15902,10 +15916,10 @@
       <c r="C44" t="s">
         <v>869</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="5" t="s">
         <v>870</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="5" t="s">
         <v>871</v>
       </c>
       <c r="F44" t="s">
@@ -15938,7 +15952,7 @@
       <c r="O44" t="s">
         <v>870</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P44" s="5" t="s">
         <v>879</v>
       </c>
       <c r="R44" t="s">
@@ -15971,7 +15985,7 @@
       <c r="AF44" t="s">
         <v>886</v>
       </c>
-      <c r="AG44" t="s">
+      <c r="AG44" s="5" t="s">
         <v>887</v>
       </c>
       <c r="AH44" t="s">
@@ -16061,19 +16075,19 @@
       <c r="BJ44" t="s">
         <v>111</v>
       </c>
-      <c r="BK44" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL44" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM44" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN44" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO44" t="s">
+      <c r="BK44" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL44" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO44" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP44" t="s">
@@ -16132,10 +16146,10 @@
       <c r="C45" t="s">
         <v>480</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="5" t="s">
         <v>900</v>
       </c>
       <c r="F45" t="s">
@@ -16168,10 +16182,10 @@
       <c r="O45" t="s">
         <v>899</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="Q45" s="5" t="s">
         <v>903</v>
       </c>
       <c r="R45" t="s">
@@ -16219,7 +16233,7 @@
       <c r="AF45" t="s">
         <v>908</v>
       </c>
-      <c r="AG45" t="s">
+      <c r="AG45" s="5" t="s">
         <v>908</v>
       </c>
       <c r="AH45" t="s">
@@ -16309,19 +16323,19 @@
       <c r="BJ45" t="s">
         <v>161</v>
       </c>
-      <c r="BK45" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL45" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM45" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN45" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO45" t="s">
+      <c r="BK45" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL45" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM45" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN45" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO45" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP45" t="s">
@@ -16380,10 +16394,10 @@
       <c r="C46" t="s">
         <v>915</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="5" t="s">
         <v>916</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="5" t="s">
         <v>917</v>
       </c>
       <c r="F46" t="s">
@@ -16416,10 +16430,10 @@
       <c r="O46" t="s">
         <v>916</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="Q46" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R46" t="s">
@@ -16467,7 +16481,7 @@
       <c r="AF46" t="s">
         <v>926</v>
       </c>
-      <c r="AG46" t="s">
+      <c r="AG46" s="5" t="s">
         <v>927</v>
       </c>
       <c r="AH46" t="s">
@@ -16557,19 +16571,19 @@
       <c r="BJ46" t="s">
         <v>111</v>
       </c>
-      <c r="BK46" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL46" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM46" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN46" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO46" t="s">
+      <c r="BK46" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL46" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM46" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN46" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO46" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP46" t="s">
@@ -16628,10 +16642,10 @@
       <c r="C47" t="s">
         <v>554</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="5" t="s">
         <v>937</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="5" t="s">
         <v>938</v>
       </c>
       <c r="F47" t="s">
@@ -16664,7 +16678,7 @@
       <c r="O47" t="s">
         <v>937</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="5" t="s">
         <v>941</v>
       </c>
       <c r="R47" t="s">
@@ -16697,7 +16711,7 @@
       <c r="AF47" t="s">
         <v>945</v>
       </c>
-      <c r="AG47" t="s">
+      <c r="AG47" s="5" t="s">
         <v>945</v>
       </c>
       <c r="AH47" t="s">
@@ -16787,19 +16801,19 @@
       <c r="BJ47" t="s">
         <v>111</v>
       </c>
-      <c r="BK47" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL47" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM47" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN47" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO47" t="s">
+      <c r="BK47" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL47" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM47" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN47" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO47" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP47" t="s">
@@ -16858,10 +16872,10 @@
       <c r="C48" t="s">
         <v>212</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="5" t="s">
         <v>806</v>
       </c>
       <c r="F48" t="s">
@@ -16894,7 +16908,7 @@
       <c r="O48" t="s">
         <v>950</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48" s="5" t="s">
         <v>463</v>
       </c>
       <c r="R48" t="s">
@@ -16927,7 +16941,7 @@
       <c r="AF48" t="s">
         <v>815</v>
       </c>
-      <c r="AG48" t="s">
+      <c r="AG48" s="5" t="s">
         <v>815</v>
       </c>
       <c r="AH48" t="s">
@@ -17017,19 +17031,19 @@
       <c r="BJ48" t="s">
         <v>161</v>
       </c>
-      <c r="BK48" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL48" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM48" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN48" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO48" t="s">
+      <c r="BK48" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL48" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM48" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN48" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO48" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP48" t="s">
@@ -17088,10 +17102,10 @@
       <c r="C49" t="s">
         <v>952</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="5" t="s">
         <v>953</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="5" t="s">
         <v>954</v>
       </c>
       <c r="F49" t="s">
@@ -17124,7 +17138,7 @@
       <c r="O49" t="s">
         <v>953</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P49" s="5" t="s">
         <v>463</v>
       </c>
       <c r="R49" t="s">
@@ -17157,7 +17171,7 @@
       <c r="AF49" t="s">
         <v>963</v>
       </c>
-      <c r="AG49" t="s">
+      <c r="AG49" s="5" t="s">
         <v>713</v>
       </c>
       <c r="AH49" t="s">
@@ -17247,19 +17261,19 @@
       <c r="BJ49" t="s">
         <v>111</v>
       </c>
-      <c r="BK49" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL49" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM49" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN49" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO49" t="s">
+      <c r="BK49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO49" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP49" t="s">
@@ -17318,10 +17332,10 @@
       <c r="C50" t="s">
         <v>967</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="5" t="s">
         <v>969</v>
       </c>
       <c r="F50" t="s">
@@ -17354,10 +17368,10 @@
       <c r="O50" t="s">
         <v>968</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P50" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="Q50" s="5" t="s">
         <v>973</v>
       </c>
       <c r="R50" t="s">
@@ -17405,7 +17419,7 @@
       <c r="AF50" t="s">
         <v>978</v>
       </c>
-      <c r="AG50" t="s">
+      <c r="AG50" s="5" t="s">
         <v>978</v>
       </c>
       <c r="AH50" t="s">
@@ -17495,19 +17509,19 @@
       <c r="BJ50" t="s">
         <v>111</v>
       </c>
-      <c r="BK50" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL50" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM50" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN50" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO50" t="s">
+      <c r="BK50" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO50" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP50" t="s">
@@ -17566,10 +17580,10 @@
       <c r="C51" t="s">
         <v>784</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="5" t="s">
         <v>984</v>
       </c>
       <c r="F51" t="s">
@@ -17602,10 +17616,10 @@
       <c r="O51" t="s">
         <v>983</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P51" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="Q51" s="5" t="s">
         <v>864</v>
       </c>
       <c r="R51" t="s">
@@ -17653,7 +17667,7 @@
       <c r="AF51" t="s">
         <v>997</v>
       </c>
-      <c r="AG51" t="s">
+      <c r="AG51" s="5" t="s">
         <v>998</v>
       </c>
       <c r="AH51" t="s">
@@ -17743,19 +17757,19 @@
       <c r="BJ51" t="s">
         <v>111</v>
       </c>
-      <c r="BK51" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL51" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM51" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN51" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO51" t="s">
+      <c r="BK51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO51" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP51" t="s">
@@ -17814,10 +17828,10 @@
       <c r="C52" t="s">
         <v>1007</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="5" t="s">
         <v>1008</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="5" t="s">
         <v>1009</v>
       </c>
       <c r="F52" t="s">
@@ -17850,10 +17864,10 @@
       <c r="O52" t="s">
         <v>1008</v>
       </c>
-      <c r="P52" t="s">
+      <c r="P52" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="Q52" s="5" t="s">
         <v>146</v>
       </c>
       <c r="R52" t="s">
@@ -17901,7 +17915,7 @@
       <c r="AF52" t="s">
         <v>1021</v>
       </c>
-      <c r="AG52" t="s">
+      <c r="AG52" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="AH52" t="s">
@@ -17991,19 +18005,19 @@
       <c r="BJ52" t="s">
         <v>111</v>
       </c>
-      <c r="BK52" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL52" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM52" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN52" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO52" t="s">
+      <c r="BK52" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL52" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM52" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN52" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO52" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP52" t="s">
@@ -18062,10 +18076,10 @@
       <c r="C53" t="s">
         <v>722</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="5" t="s">
         <v>1036</v>
       </c>
       <c r="F53" t="s">
@@ -18098,7 +18112,7 @@
       <c r="O53" t="s">
         <v>1035</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P53" s="5" t="s">
         <v>217</v>
       </c>
       <c r="R53" t="s">
@@ -18131,7 +18145,7 @@
       <c r="AF53" t="s">
         <v>1047</v>
       </c>
-      <c r="AG53" t="s">
+      <c r="AG53" s="5" t="s">
         <v>1048</v>
       </c>
       <c r="AH53" t="s">
@@ -18221,19 +18235,19 @@
       <c r="BJ53" t="s">
         <v>111</v>
       </c>
-      <c r="BK53" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL53" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM53" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN53" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO53" t="s">
+      <c r="BK53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO53" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP53" t="s">
@@ -18292,10 +18306,10 @@
       <c r="C54" t="s">
         <v>1058</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>1059</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="5" t="s">
         <v>1060</v>
       </c>
       <c r="F54" t="s">
@@ -18328,10 +18342,10 @@
       <c r="O54" t="s">
         <v>1059</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P54" s="5" t="s">
         <v>1068</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="Q54" s="5" t="s">
         <v>1069</v>
       </c>
       <c r="R54" t="s">
@@ -18379,7 +18393,7 @@
       <c r="AF54" t="s">
         <v>1078</v>
       </c>
-      <c r="AG54" t="s">
+      <c r="AG54" s="5" t="s">
         <v>1079</v>
       </c>
       <c r="AH54" t="s">
@@ -18469,19 +18483,19 @@
       <c r="BJ54" t="s">
         <v>111</v>
       </c>
-      <c r="BK54" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL54" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM54" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN54" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO54" t="s">
+      <c r="BK54" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL54" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM54" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN54" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO54" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP54" t="s">
@@ -18540,10 +18554,10 @@
       <c r="C55" t="s">
         <v>1090</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="5" t="s">
         <v>1091</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="5" t="s">
         <v>1092</v>
       </c>
       <c r="F55" t="s">
@@ -18576,7 +18590,7 @@
       <c r="O55" t="s">
         <v>1091</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P55" s="5" t="s">
         <v>122</v>
       </c>
       <c r="R55" t="s">
@@ -18609,7 +18623,7 @@
       <c r="AF55" t="s">
         <v>1102</v>
       </c>
-      <c r="AG55" t="s">
+      <c r="AG55" s="5" t="s">
         <v>1102</v>
       </c>
       <c r="AH55" t="s">
@@ -18699,19 +18713,19 @@
       <c r="BJ55" t="s">
         <v>111</v>
       </c>
-      <c r="BK55" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL55" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM55" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN55" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO55" t="s">
+      <c r="BK55" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL55" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM55" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN55" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO55" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP55" t="s">
@@ -18770,10 +18784,10 @@
       <c r="C56" t="s">
         <v>433</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="5" t="s">
         <v>1109</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="5" t="s">
         <v>1110</v>
       </c>
       <c r="F56" t="s">
@@ -18851,7 +18865,7 @@
       <c r="AF56" t="s">
         <v>1122</v>
       </c>
-      <c r="AG56" t="s">
+      <c r="AG56" s="5" t="s">
         <v>1122</v>
       </c>
       <c r="AH56" t="s">
@@ -18941,19 +18955,19 @@
       <c r="BJ56" t="s">
         <v>111</v>
       </c>
-      <c r="BK56" t="s">
+      <c r="BK56" s="5" t="s">
         <v>1642</v>
       </c>
-      <c r="BL56" t="s">
+      <c r="BL56" s="5" t="s">
         <v>1642</v>
       </c>
-      <c r="BM56" t="s">
+      <c r="BM56" s="5" t="s">
         <v>1642</v>
       </c>
-      <c r="BN56" t="s">
+      <c r="BN56" s="5" t="s">
         <v>1642</v>
       </c>
-      <c r="BO56" t="s">
+      <c r="BO56" s="5" t="s">
         <v>1642</v>
       </c>
       <c r="BP56" t="s">
@@ -19012,10 +19026,10 @@
       <c r="C57" t="s">
         <v>1128</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="5" t="s">
         <v>1129</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="5" t="s">
         <v>1130</v>
       </c>
       <c r="F57" t="s">
@@ -19039,10 +19053,10 @@
       <c r="O57" t="s">
         <v>1129</v>
       </c>
-      <c r="P57" t="s">
+      <c r="P57" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="Q57" s="5" t="s">
         <v>565</v>
       </c>
       <c r="R57" t="s">
@@ -19090,7 +19104,7 @@
       <c r="AF57" t="s">
         <v>182</v>
       </c>
-      <c r="AG57" t="s">
+      <c r="AG57" s="5" t="s">
         <v>182</v>
       </c>
       <c r="AH57" t="s">
@@ -19197,10 +19211,10 @@
       <c r="C58" t="s">
         <v>666</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="5" t="s">
         <v>1133</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="5" t="s">
         <v>1134</v>
       </c>
       <c r="F58" t="s">
@@ -19233,10 +19247,10 @@
       <c r="O58" t="s">
         <v>1133</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P58" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="Q58" s="5" t="s">
         <v>463</v>
       </c>
       <c r="R58" t="s">
@@ -19284,7 +19298,7 @@
       <c r="AF58" t="s">
         <v>1138</v>
       </c>
-      <c r="AG58" t="s">
+      <c r="AG58" s="5" t="s">
         <v>1138</v>
       </c>
       <c r="AH58" t="s">
@@ -19374,19 +19388,19 @@
       <c r="BJ58" t="s">
         <v>111</v>
       </c>
-      <c r="BK58" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL58" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM58" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN58" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO58" t="s">
+      <c r="BK58" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL58" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM58" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN58" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO58" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP58" t="s">
@@ -19445,10 +19459,10 @@
       <c r="C59" t="s">
         <v>817</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="5" t="s">
         <v>1143</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="F59" t="s">
@@ -19481,10 +19495,10 @@
       <c r="O59" t="s">
         <v>1143</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P59" s="5" t="s">
         <v>1152</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="Q59" s="5" t="s">
         <v>1153</v>
       </c>
       <c r="R59" t="s">
@@ -19532,7 +19546,7 @@
       <c r="AF59" t="s">
         <v>1161</v>
       </c>
-      <c r="AG59" t="s">
+      <c r="AG59" s="5" t="s">
         <v>1162</v>
       </c>
       <c r="AH59" t="s">
@@ -19622,19 +19636,19 @@
       <c r="BJ59" t="s">
         <v>111</v>
       </c>
-      <c r="BK59" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL59" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM59" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN59" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO59" t="s">
+      <c r="BK59" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL59" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM59" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN59" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO59" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP59" t="s">
@@ -19693,10 +19707,10 @@
       <c r="C60" t="s">
         <v>641</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="5" t="s">
         <v>1174</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="5" t="s">
         <v>1175</v>
       </c>
       <c r="F60" t="s">
@@ -19729,10 +19743,10 @@
       <c r="O60" t="s">
         <v>1174</v>
       </c>
-      <c r="P60" t="s">
+      <c r="P60" s="5" t="s">
         <v>1177</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="Q60" s="5" t="s">
         <v>463</v>
       </c>
       <c r="R60" t="s">
@@ -19780,7 +19794,7 @@
       <c r="AF60" t="s">
         <v>815</v>
       </c>
-      <c r="AG60" t="s">
+      <c r="AG60" s="5" t="s">
         <v>815</v>
       </c>
       <c r="AH60" t="s">
@@ -19870,19 +19884,19 @@
       <c r="BJ60" t="s">
         <v>161</v>
       </c>
-      <c r="BK60" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL60" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM60" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN60" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO60" t="s">
+      <c r="BK60" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL60" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM60" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN60" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO60" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP60" t="s">
@@ -19941,10 +19955,10 @@
       <c r="C61" t="s">
         <v>1183</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="5" t="s">
         <v>1184</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="5" t="s">
         <v>1185</v>
       </c>
       <c r="F61" t="s">
@@ -19977,10 +19991,10 @@
       <c r="O61" t="s">
         <v>1184</v>
       </c>
-      <c r="P61" t="s">
+      <c r="P61" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="Q61" s="5" t="s">
         <v>1189</v>
       </c>
       <c r="R61" t="s">
@@ -20028,7 +20042,7 @@
       <c r="AF61" t="s">
         <v>694</v>
       </c>
-      <c r="AG61" t="s">
+      <c r="AG61" s="5" t="s">
         <v>1194</v>
       </c>
       <c r="AH61" t="s">
@@ -20118,19 +20132,19 @@
       <c r="BJ61" t="s">
         <v>111</v>
       </c>
-      <c r="BK61" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL61" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM61" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN61" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO61" t="s">
+      <c r="BK61" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL61" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM61" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN61" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO61" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP61" t="s">
@@ -20189,10 +20203,10 @@
       <c r="C62" t="s">
         <v>1199</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="5" t="s">
         <v>1201</v>
       </c>
       <c r="F62" t="s">
@@ -20225,10 +20239,10 @@
       <c r="O62" t="s">
         <v>1200</v>
       </c>
-      <c r="P62" t="s">
+      <c r="P62" s="5" t="s">
         <v>1205</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="Q62" s="5" t="s">
         <v>1206</v>
       </c>
       <c r="R62" t="s">
@@ -20276,7 +20290,7 @@
       <c r="AF62" t="s">
         <v>1213</v>
       </c>
-      <c r="AG62" t="s">
+      <c r="AG62" s="5" t="s">
         <v>1214</v>
       </c>
       <c r="AH62" t="s">
@@ -20366,19 +20380,19 @@
       <c r="BJ62" t="s">
         <v>111</v>
       </c>
-      <c r="BK62" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL62" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM62" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN62" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO62" t="s">
+      <c r="BK62" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL62" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM62" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN62" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO62" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP62" t="s">
@@ -20437,10 +20451,10 @@
       <c r="C63" t="s">
         <v>1221</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="5" t="s">
         <v>1222</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="5" t="s">
         <v>1223</v>
       </c>
       <c r="F63" t="s">
@@ -20473,10 +20487,10 @@
       <c r="O63" t="s">
         <v>1222</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P63" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="Q63" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R63" t="s">
@@ -20524,7 +20538,7 @@
       <c r="AF63" t="s">
         <v>1234</v>
       </c>
-      <c r="AG63" t="s">
+      <c r="AG63" s="5" t="s">
         <v>1235</v>
       </c>
       <c r="AH63" t="s">
@@ -20614,19 +20628,19 @@
       <c r="BJ63" t="s">
         <v>161</v>
       </c>
-      <c r="BK63" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL63" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM63" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN63" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO63" t="s">
+      <c r="BK63" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL63" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM63" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN63" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO63" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP63" t="s">
@@ -20682,10 +20696,10 @@
       <c r="C64" t="s">
         <v>165</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="5" t="s">
         <v>1243</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="5" t="s">
         <v>1244</v>
       </c>
       <c r="F64" t="s">
@@ -20718,10 +20732,10 @@
       <c r="O64" t="s">
         <v>1243</v>
       </c>
-      <c r="P64" t="s">
+      <c r="P64" s="5" t="s">
         <v>1247</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="Q64" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R64" t="s">
@@ -20769,7 +20783,7 @@
       <c r="AF64" t="s">
         <v>1254</v>
       </c>
-      <c r="AG64" t="s">
+      <c r="AG64" s="5" t="s">
         <v>1254</v>
       </c>
       <c r="AH64" t="s">
@@ -20859,19 +20873,19 @@
       <c r="BJ64" t="s">
         <v>161</v>
       </c>
-      <c r="BK64" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL64" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM64" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN64" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO64" t="s">
+      <c r="BK64" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL64" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM64" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN64" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO64" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP64" t="s">
@@ -20927,10 +20941,10 @@
       <c r="C65" t="s">
         <v>99</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="5" t="s">
         <v>1260</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="5" t="s">
         <v>1261</v>
       </c>
       <c r="F65" t="s">
@@ -20963,10 +20977,10 @@
       <c r="O65" t="s">
         <v>1260</v>
       </c>
-      <c r="P65" t="s">
+      <c r="P65" s="5" t="s">
         <v>1265</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="Q65" s="5" t="s">
         <v>1266</v>
       </c>
       <c r="R65" t="s">
@@ -21014,7 +21028,7 @@
       <c r="AF65" t="s">
         <v>1272</v>
       </c>
-      <c r="AG65" t="s">
+      <c r="AG65" s="5" t="s">
         <v>1273</v>
       </c>
       <c r="AH65" t="s">
@@ -21104,19 +21118,19 @@
       <c r="BJ65" t="s">
         <v>161</v>
       </c>
-      <c r="BK65" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL65" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM65" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN65" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO65" t="s">
+      <c r="BK65" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL65" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM65" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN65" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO65" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP65" t="s">
@@ -21175,10 +21189,10 @@
       <c r="C66" t="s">
         <v>95</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="5" t="s">
         <v>1281</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="5" t="s">
         <v>1282</v>
       </c>
       <c r="F66" t="s">
@@ -21211,10 +21225,10 @@
       <c r="O66" t="s">
         <v>1281</v>
       </c>
-      <c r="P66" t="s">
+      <c r="P66" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="Q66" s="5" t="s">
         <v>646</v>
       </c>
       <c r="R66" t="s">
@@ -21262,7 +21276,7 @@
       <c r="AF66" t="s">
         <v>1286</v>
       </c>
-      <c r="AG66" t="s">
+      <c r="AG66" s="5" t="s">
         <v>1286</v>
       </c>
       <c r="AH66" t="s">
@@ -21352,19 +21366,19 @@
       <c r="BJ66" t="s">
         <v>161</v>
       </c>
-      <c r="BK66" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL66" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM66" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN66" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO66" t="s">
+      <c r="BK66" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL66" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM66" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN66" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO66" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP66" t="s">
@@ -21420,10 +21434,10 @@
       <c r="C67" t="s">
         <v>626</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="5" t="s">
         <v>1291</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="5" t="s">
         <v>1292</v>
       </c>
       <c r="F67" t="s">
@@ -21456,10 +21470,10 @@
       <c r="O67" t="s">
         <v>1291</v>
       </c>
-      <c r="P67" t="s">
+      <c r="P67" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="Q67" s="5" t="s">
         <v>1295</v>
       </c>
       <c r="R67" t="s">
@@ -21507,7 +21521,7 @@
       <c r="AF67" t="s">
         <v>654</v>
       </c>
-      <c r="AG67" t="s">
+      <c r="AG67" s="5" t="s">
         <v>654</v>
       </c>
       <c r="AH67" t="s">
@@ -21597,19 +21611,19 @@
       <c r="BJ67" t="s">
         <v>111</v>
       </c>
-      <c r="BK67" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL67" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM67" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN67" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO67" t="s">
+      <c r="BK67" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL67" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM67" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN67" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO67" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP67" t="s">
@@ -21668,10 +21682,10 @@
       <c r="C68" t="s">
         <v>598</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="5" t="s">
         <v>1305</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="5" t="s">
         <v>1306</v>
       </c>
       <c r="F68" t="s">
@@ -21704,10 +21718,10 @@
       <c r="O68" t="s">
         <v>1305</v>
       </c>
-      <c r="P68" t="s">
+      <c r="P68" s="5" t="s">
         <v>1314</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="Q68" s="5" t="s">
         <v>1315</v>
       </c>
       <c r="R68" t="s">
@@ -21755,7 +21769,7 @@
       <c r="AF68" t="s">
         <v>1323</v>
       </c>
-      <c r="AG68" t="s">
+      <c r="AG68" s="5" t="s">
         <v>1322</v>
       </c>
       <c r="AH68" t="s">
@@ -21845,19 +21859,19 @@
       <c r="BJ68" t="s">
         <v>161</v>
       </c>
-      <c r="BK68" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL68" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM68" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN68" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO68" t="s">
+      <c r="BK68" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL68" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM68" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN68" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO68" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP68" t="s">
@@ -21916,10 +21930,10 @@
       <c r="C69" t="s">
         <v>1331</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="5" t="s">
         <v>1332</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="5" t="s">
         <v>1333</v>
       </c>
       <c r="F69" t="s">
@@ -21952,10 +21966,10 @@
       <c r="O69" t="s">
         <v>1332</v>
       </c>
-      <c r="P69" t="s">
+      <c r="P69" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="Q69" s="5" t="s">
         <v>1336</v>
       </c>
       <c r="R69" t="s">
@@ -22003,7 +22017,7 @@
       <c r="AF69" t="s">
         <v>1339</v>
       </c>
-      <c r="AG69" t="s">
+      <c r="AG69" s="5" t="s">
         <v>1339</v>
       </c>
       <c r="AH69" t="s">
@@ -22093,19 +22107,19 @@
       <c r="BJ69" t="s">
         <v>111</v>
       </c>
-      <c r="BK69" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL69" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM69" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN69" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO69" t="s">
+      <c r="BK69" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL69" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM69" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN69" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO69" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP69" t="s">
@@ -22164,10 +22178,10 @@
       <c r="C70" t="s">
         <v>554</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="5" t="s">
         <v>1344</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="5" t="s">
         <v>1345</v>
       </c>
       <c r="F70" t="s">
@@ -22200,10 +22214,10 @@
       <c r="O70" t="s">
         <v>1344</v>
       </c>
-      <c r="P70" t="s">
+      <c r="P70" s="5" t="s">
         <v>1347</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="Q70" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R70" t="s">
@@ -22251,7 +22265,7 @@
       <c r="AF70" t="s">
         <v>549</v>
       </c>
-      <c r="AG70" t="s">
+      <c r="AG70" s="5" t="s">
         <v>549</v>
       </c>
       <c r="AH70" t="s">
@@ -22341,19 +22355,19 @@
       <c r="BJ70" t="s">
         <v>161</v>
       </c>
-      <c r="BK70" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL70" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM70" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN70" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO70" t="s">
+      <c r="BK70" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL70" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM70" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN70" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO70" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP70" t="s">
@@ -22409,10 +22423,10 @@
       <c r="C71" t="s">
         <v>275</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="5" t="s">
         <v>1351</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="5" t="s">
         <v>1352</v>
       </c>
       <c r="F71" t="s">
@@ -22445,7 +22459,7 @@
       <c r="O71" t="s">
         <v>1351</v>
       </c>
-      <c r="P71" t="s">
+      <c r="P71" s="5" t="s">
         <v>323</v>
       </c>
       <c r="R71" t="s">
@@ -22478,7 +22492,7 @@
       <c r="AF71" t="s">
         <v>1354</v>
       </c>
-      <c r="AG71" t="s">
+      <c r="AG71" s="5" t="s">
         <v>1354</v>
       </c>
       <c r="AH71" t="s">
@@ -22568,19 +22582,19 @@
       <c r="BJ71" t="s">
         <v>111</v>
       </c>
-      <c r="BK71" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL71" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM71" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN71" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO71" t="s">
+      <c r="BK71" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL71" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM71" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN71" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO71" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP71" t="s">
@@ -22639,10 +22653,10 @@
       <c r="C72" t="s">
         <v>819</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="5" t="s">
         <v>1357</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="5" t="s">
         <v>1358</v>
       </c>
       <c r="F72" t="s">
@@ -22675,10 +22689,10 @@
       <c r="O72" t="s">
         <v>1357</v>
       </c>
-      <c r="P72" t="s">
+      <c r="P72" s="5" t="s">
         <v>1361</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="Q72" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R72" t="s">
@@ -22726,7 +22740,7 @@
       <c r="AF72" t="s">
         <v>1366</v>
       </c>
-      <c r="AG72" t="s">
+      <c r="AG72" s="5" t="s">
         <v>1366</v>
       </c>
       <c r="AH72" t="s">
@@ -22816,19 +22830,19 @@
       <c r="BJ72" t="s">
         <v>161</v>
       </c>
-      <c r="BK72" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL72" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM72" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN72" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO72" t="s">
+      <c r="BK72" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL72" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM72" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN72" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO72" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP72" t="s">
@@ -22884,10 +22898,10 @@
       <c r="C73" t="s">
         <v>543</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="5" t="s">
         <v>1372</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="5" t="s">
         <v>1373</v>
       </c>
       <c r="F73" t="s">
@@ -22920,7 +22934,7 @@
       <c r="O73" t="s">
         <v>1372</v>
       </c>
-      <c r="P73" t="s">
+      <c r="P73" s="5" t="s">
         <v>1381</v>
       </c>
       <c r="R73" t="s">
@@ -22953,7 +22967,7 @@
       <c r="AF73" t="s">
         <v>1385</v>
       </c>
-      <c r="AG73" t="s">
+      <c r="AG73" s="5" t="s">
         <v>1387</v>
       </c>
       <c r="AH73" t="s">
@@ -23043,19 +23057,19 @@
       <c r="BJ73" t="s">
         <v>111</v>
       </c>
-      <c r="BK73" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL73" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM73" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN73" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO73" t="s">
+      <c r="BK73" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL73" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM73" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN73" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO73" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP73" t="s">
@@ -23114,10 +23128,10 @@
       <c r="C74" t="s">
         <v>967</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="5" t="s">
         <v>1394</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="5" t="s">
         <v>1395</v>
       </c>
       <c r="F74" t="s">
@@ -23150,10 +23164,10 @@
       <c r="O74" t="s">
         <v>1394</v>
       </c>
-      <c r="P74" t="s">
+      <c r="P74" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="Q74" s="5" t="s">
         <v>323</v>
       </c>
       <c r="R74" t="s">
@@ -23201,7 +23215,7 @@
       <c r="AF74" t="s">
         <v>1405</v>
       </c>
-      <c r="AG74" t="s">
+      <c r="AG74" s="5" t="s">
         <v>1406</v>
       </c>
       <c r="AH74" t="s">
@@ -23291,19 +23305,19 @@
       <c r="BJ74" t="s">
         <v>111</v>
       </c>
-      <c r="BK74" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL74" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM74" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN74" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO74" t="s">
+      <c r="BK74" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL74" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM74" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN74" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO74" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP74" t="s">
@@ -23362,10 +23376,10 @@
       <c r="C75" t="s">
         <v>1415</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="5" t="s">
         <v>1416</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="5" t="s">
         <v>1417</v>
       </c>
       <c r="F75" t="s">
@@ -23398,10 +23412,10 @@
       <c r="O75" t="s">
         <v>1416</v>
       </c>
-      <c r="P75" t="s">
+      <c r="P75" s="5" t="s">
         <v>1421</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="Q75" s="5" t="s">
         <v>1422</v>
       </c>
       <c r="R75" t="s">
@@ -23449,7 +23463,7 @@
       <c r="AF75" t="s">
         <v>1427</v>
       </c>
-      <c r="AG75" t="s">
+      <c r="AG75" s="5" t="s">
         <v>1426</v>
       </c>
       <c r="AH75" t="s">
@@ -23539,19 +23553,19 @@
       <c r="BJ75" t="s">
         <v>111</v>
       </c>
-      <c r="BK75" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL75" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM75" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN75" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO75" t="s">
+      <c r="BK75" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL75" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM75" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN75" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO75" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP75" t="s">
@@ -23610,10 +23624,10 @@
       <c r="C76" t="s">
         <v>1433</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="5" t="s">
         <v>1434</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="5" t="s">
         <v>1435</v>
       </c>
       <c r="F76" t="s">
@@ -23646,7 +23660,7 @@
       <c r="O76" t="s">
         <v>1434</v>
       </c>
-      <c r="P76" t="s">
+      <c r="P76" s="5" t="s">
         <v>1443</v>
       </c>
       <c r="R76" t="s">
@@ -23679,7 +23693,7 @@
       <c r="AF76" t="s">
         <v>1450</v>
       </c>
-      <c r="AG76" t="s">
+      <c r="AG76" s="5" t="s">
         <v>1451</v>
       </c>
       <c r="AH76" t="s">
@@ -23769,19 +23783,19 @@
       <c r="BJ76" t="s">
         <v>111</v>
       </c>
-      <c r="BK76" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL76" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM76" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN76" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO76" t="s">
+      <c r="BK76" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL76" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM76" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN76" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO76" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP76" t="s">
@@ -23840,10 +23854,10 @@
       <c r="C77" t="s">
         <v>1462</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="5" t="s">
         <v>1463</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="5" t="s">
         <v>1464</v>
       </c>
       <c r="F77" t="s">
@@ -23876,7 +23890,7 @@
       <c r="O77" t="s">
         <v>1463</v>
       </c>
-      <c r="P77" t="s">
+      <c r="P77" s="5" t="s">
         <v>1467</v>
       </c>
       <c r="R77" t="s">
@@ -23909,7 +23923,7 @@
       <c r="AF77" t="s">
         <v>1471</v>
       </c>
-      <c r="AG77" t="s">
+      <c r="AG77" s="5" t="s">
         <v>1471</v>
       </c>
       <c r="AH77" t="s">
@@ -23999,19 +24013,19 @@
       <c r="BJ77" t="s">
         <v>111</v>
       </c>
-      <c r="BK77" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL77" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM77" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN77" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO77" t="s">
+      <c r="BK77" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL77" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM77" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN77" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO77" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP77" t="s">
@@ -24070,10 +24084,10 @@
       <c r="C78" t="s">
         <v>433</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="5" t="s">
         <v>1474</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="5" t="s">
         <v>1475</v>
       </c>
       <c r="F78" t="s">
@@ -24106,10 +24120,10 @@
       <c r="O78" t="s">
         <v>1474</v>
       </c>
-      <c r="P78" t="s">
+      <c r="P78" s="5" t="s">
         <v>1478</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="Q78" s="5" t="s">
         <v>1479</v>
       </c>
       <c r="R78" t="s">
@@ -24157,7 +24171,7 @@
       <c r="AF78" t="s">
         <v>1274</v>
       </c>
-      <c r="AG78" t="s">
+      <c r="AG78" s="5" t="s">
         <v>1274</v>
       </c>
       <c r="AH78" t="s">
@@ -24247,19 +24261,19 @@
       <c r="BJ78" t="s">
         <v>111</v>
       </c>
-      <c r="BK78" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL78" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM78" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN78" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO78" t="s">
+      <c r="BK78" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL78" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM78" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN78" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO78" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP78" t="s">
@@ -24318,10 +24332,10 @@
       <c r="C79" t="s">
         <v>320</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="5" t="s">
         <v>1489</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="5" t="s">
         <v>1490</v>
       </c>
       <c r="F79" t="s">
@@ -24354,10 +24368,10 @@
       <c r="O79" t="s">
         <v>1489</v>
       </c>
-      <c r="P79" t="s">
+      <c r="P79" s="5" t="s">
         <v>1497</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="Q79" s="5" t="s">
         <v>1498</v>
       </c>
       <c r="R79" t="s">
@@ -24405,7 +24419,7 @@
       <c r="AF79" t="s">
         <v>1502</v>
       </c>
-      <c r="AG79" t="s">
+      <c r="AG79" s="5" t="s">
         <v>1503</v>
       </c>
       <c r="AH79" t="s">
@@ -24495,19 +24509,19 @@
       <c r="BJ79" t="s">
         <v>111</v>
       </c>
-      <c r="BK79" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL79" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM79" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN79" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO79" t="s">
+      <c r="BK79" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL79" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM79" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN79" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO79" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP79" t="s">
@@ -24566,10 +24580,10 @@
       <c r="C80" t="s">
         <v>1512</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="5" t="s">
         <v>1513</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="5" t="s">
         <v>1514</v>
       </c>
       <c r="F80" t="s">
@@ -24602,10 +24616,10 @@
       <c r="O80" t="s">
         <v>1513</v>
       </c>
-      <c r="P80" t="s">
+      <c r="P80" s="5" t="s">
         <v>1467</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="Q80" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R80" t="s">
@@ -24653,7 +24667,7 @@
       <c r="AF80" t="s">
         <v>1519</v>
       </c>
-      <c r="AG80" t="s">
+      <c r="AG80" s="5" t="s">
         <v>1519</v>
       </c>
       <c r="AH80" t="s">
@@ -24743,19 +24757,19 @@
       <c r="BJ80" t="s">
         <v>111</v>
       </c>
-      <c r="BK80" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL80" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM80" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN80" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO80" t="s">
+      <c r="BK80" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL80" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM80" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN80" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO80" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP80" t="s">
@@ -24814,10 +24828,10 @@
       <c r="C81" t="s">
         <v>1181</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="5" t="s">
         <v>1526</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="5" t="s">
         <v>1527</v>
       </c>
       <c r="F81" t="s">
@@ -24841,10 +24855,10 @@
       <c r="O81" t="s">
         <v>1526</v>
       </c>
-      <c r="P81" t="s">
+      <c r="P81" s="5" t="s">
         <v>1528</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="Q81" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R81" t="s">
@@ -24892,7 +24906,7 @@
       <c r="AF81" t="s">
         <v>182</v>
       </c>
-      <c r="AG81" t="s">
+      <c r="AG81" s="5" t="s">
         <v>182</v>
       </c>
       <c r="AH81" t="s">
@@ -24999,10 +25013,10 @@
       <c r="C82" t="s">
         <v>226</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="5" t="s">
         <v>1534</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="5" t="s">
         <v>1535</v>
       </c>
       <c r="F82" t="s">
@@ -25035,10 +25049,10 @@
       <c r="O82" t="s">
         <v>1534</v>
       </c>
-      <c r="P82" t="s">
+      <c r="P82" s="5" t="s">
         <v>1538</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="Q82" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R82" t="s">
@@ -25086,7 +25100,7 @@
       <c r="AF82" t="s">
         <v>1542</v>
       </c>
-      <c r="AG82" t="s">
+      <c r="AG82" s="5" t="s">
         <v>1542</v>
       </c>
       <c r="AH82" t="s">
@@ -25176,19 +25190,19 @@
       <c r="BJ82" t="s">
         <v>111</v>
       </c>
-      <c r="BK82" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL82" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM82" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN82" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO82" t="s">
+      <c r="BK82" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL82" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM82" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN82" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO82" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP82" t="s">
@@ -25247,10 +25261,10 @@
       <c r="C83" t="s">
         <v>269</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="5" t="s">
         <v>1548</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="5" t="s">
         <v>1549</v>
       </c>
       <c r="F83" t="s">
@@ -25283,10 +25297,10 @@
       <c r="O83" t="s">
         <v>1548</v>
       </c>
-      <c r="P83" t="s">
+      <c r="P83" s="5" t="s">
         <v>1557</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="Q83" s="5" t="s">
         <v>1558</v>
       </c>
       <c r="R83" t="s">
@@ -25334,7 +25348,7 @@
       <c r="AF83" t="s">
         <v>1565</v>
       </c>
-      <c r="AG83" t="s">
+      <c r="AG83" s="5" t="s">
         <v>1566</v>
       </c>
       <c r="AH83" t="s">
@@ -25424,19 +25438,19 @@
       <c r="BJ83" t="s">
         <v>161</v>
       </c>
-      <c r="BK83" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL83" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM83" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN83" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO83" t="s">
+      <c r="BK83" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL83" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM83" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN83" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO83" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP83" t="s">
@@ -25495,10 +25509,10 @@
       <c r="C84" t="s">
         <v>1573</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="5" t="s">
         <v>1575</v>
       </c>
       <c r="F84" t="s">
@@ -25531,10 +25545,10 @@
       <c r="O84" t="s">
         <v>1574</v>
       </c>
-      <c r="P84" t="s">
+      <c r="P84" s="5" t="s">
         <v>1579</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="Q84" s="5" t="s">
         <v>565</v>
       </c>
       <c r="R84" t="s">
@@ -25582,7 +25596,7 @@
       <c r="AF84" t="s">
         <v>1582</v>
       </c>
-      <c r="AG84" t="s">
+      <c r="AG84" s="5" t="s">
         <v>1582</v>
       </c>
       <c r="AH84" t="s">
@@ -25672,19 +25686,19 @@
       <c r="BJ84" t="s">
         <v>161</v>
       </c>
-      <c r="BK84" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL84" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM84" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN84" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO84" t="s">
+      <c r="BK84" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL84" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM84" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN84" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO84" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP84" t="s">
@@ -25743,10 +25757,10 @@
       <c r="C85" t="s">
         <v>115</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="5" t="s">
         <v>1587</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="5" t="s">
         <v>1588</v>
       </c>
       <c r="F85" t="s">
@@ -25779,10 +25793,10 @@
       <c r="O85" t="s">
         <v>1587</v>
       </c>
-      <c r="P85" t="s">
+      <c r="P85" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="Q85" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R85" t="s">
@@ -25830,7 +25844,7 @@
       <c r="AF85" t="s">
         <v>1592</v>
       </c>
-      <c r="AG85" t="s">
+      <c r="AG85" s="5" t="s">
         <v>1592</v>
       </c>
       <c r="AH85" t="s">
@@ -25920,19 +25934,19 @@
       <c r="BJ85" t="s">
         <v>111</v>
       </c>
-      <c r="BK85" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL85" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM85" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN85" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO85" t="s">
+      <c r="BK85" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL85" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM85" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN85" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO85" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP85" t="s">
@@ -25991,10 +26005,10 @@
       <c r="C86" t="s">
         <v>185</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="5" t="s">
         <v>1599</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="5" t="s">
         <v>1600</v>
       </c>
       <c r="F86" t="s">
@@ -26027,10 +26041,10 @@
       <c r="O86" t="s">
         <v>1599</v>
       </c>
-      <c r="P86" t="s">
+      <c r="P86" s="5" t="s">
         <v>1603</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="Q86" s="5" t="s">
         <v>1604</v>
       </c>
       <c r="R86" t="s">
@@ -26078,7 +26092,7 @@
       <c r="AF86" t="s">
         <v>1609</v>
       </c>
-      <c r="AG86" t="s">
+      <c r="AG86" s="5" t="s">
         <v>1609</v>
       </c>
       <c r="AH86" t="s">
@@ -26168,19 +26182,19 @@
       <c r="BJ86" t="s">
         <v>111</v>
       </c>
-      <c r="BK86" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL86" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM86" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN86" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO86" t="s">
+      <c r="BK86" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL86" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM86" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN86" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO86" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP86" t="s">
@@ -26239,10 +26253,10 @@
       <c r="C87" t="s">
         <v>506</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="5" t="s">
         <v>1616</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="5" t="s">
         <v>1617</v>
       </c>
       <c r="F87" t="s">
@@ -26275,7 +26289,7 @@
       <c r="O87" t="s">
         <v>1616</v>
       </c>
-      <c r="P87" t="s">
+      <c r="P87" s="5" t="s">
         <v>1620</v>
       </c>
       <c r="R87" t="s">
@@ -26308,7 +26322,7 @@
       <c r="AF87" t="s">
         <v>1625</v>
       </c>
-      <c r="AG87" t="s">
+      <c r="AG87" s="5" t="s">
         <v>1625</v>
       </c>
       <c r="AH87" t="s">
@@ -26398,19 +26412,19 @@
       <c r="BJ87" t="s">
         <v>111</v>
       </c>
-      <c r="BK87" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL87" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM87" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN87" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO87" t="s">
+      <c r="BK87" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL87" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM87" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN87" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO87" s="5" t="s">
         <v>111</v>
       </c>
       <c r="BP87" t="s">
@@ -26469,10 +26483,10 @@
       <c r="C88" t="s">
         <v>869</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="5" t="s">
         <v>1629</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="5" t="s">
         <v>1630</v>
       </c>
       <c r="F88" t="s">
@@ -26505,10 +26519,10 @@
       <c r="O88" t="s">
         <v>1629</v>
       </c>
-      <c r="P88" t="s">
+      <c r="P88" s="5" t="s">
         <v>1633</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="Q88" s="5" t="s">
         <v>1634</v>
       </c>
       <c r="R88" t="s">
@@ -26556,7 +26570,7 @@
       <c r="AF88" t="s">
         <v>1640</v>
       </c>
-      <c r="AG88" t="s">
+      <c r="AG88" s="5" t="s">
         <v>1640</v>
       </c>
       <c r="AH88" t="s">
@@ -26646,19 +26660,19 @@
       <c r="BJ88" t="s">
         <v>161</v>
       </c>
-      <c r="BK88" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL88" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM88" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN88" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO88" t="s">
+      <c r="BK88" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL88" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM88" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN88" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO88" s="5" t="s">
         <v>161</v>
       </c>
       <c r="BP88" t="s">
